--- a/Excel/EnemyInfo.xlsx
+++ b/Excel/EnemyInfo.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CE8E66-807E-4DA0-BC1E-198E02FCEB77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="8712" yWindow="360" windowWidth="13392" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +19,90 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+  <si>
+    <t>敌人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人敌人1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +126,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +410,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="18" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/EnemyInfo.xlsx
+++ b/Excel/EnemyInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CE8E66-807E-4DA0-BC1E-198E02FCEB77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FA37DE-E291-48A5-A99F-2527F7A2B668}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8712" yWindow="360" windowWidth="13392" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15828" yWindow="720" windowWidth="13392" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>敌人ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,26 +70,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,8 +139,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{DCC8B4F3-3A68-468B-831C-43F6AA20CD09}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -414,7 +446,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -422,7 +454,7 @@
     <col min="1" max="18" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +482,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -462,21 +497,24 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Excel/EnemyInfo.xlsx
+++ b/Excel/EnemyInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FA37DE-E291-48A5-A99F-2527F7A2B668}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28467B35-8422-42A0-9CC3-0277E113484F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15828" yWindow="720" windowWidth="13392" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="13392" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>敌人ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,14 @@
   </si>
   <si>
     <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +454,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -454,7 +462,7 @@
     <col min="1" max="18" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,8 +493,11 @@
       <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -516,6 +527,9 @@
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EnemyInfo.xlsx
+++ b/Excel/EnemyInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28467B35-8422-42A0-9CC3-0277E113484F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3110B1C-302A-4331-84F7-B61B883914A4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="13392" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7860" yWindow="1044" windowWidth="13392" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,6 +91,10 @@
   </si>
   <si>
     <t>Enemy/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +454,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -491,10 +491,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
@@ -508,28 +508,28 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EnemyInfo.xlsx
+++ b/Excel/EnemyInfo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3110B1C-302A-4331-84F7-B61B883914A4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9260F2B2-EFFB-4DBA-9107-E40416003432}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="1044" windowWidth="13392" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="95">
   <si>
     <t>敌人ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,12 +90,240 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enemy/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>敌人2</t>
+  </si>
+  <si>
+    <t>敌人3</t>
+  </si>
+  <si>
+    <t>敌人4</t>
+  </si>
+  <si>
+    <t>敌人5</t>
+  </si>
+  <si>
+    <t>敌人6</t>
+  </si>
+  <si>
+    <t>敌人7</t>
+  </si>
+  <si>
+    <t>敌人8</t>
+  </si>
+  <si>
+    <t>敌人9</t>
+  </si>
+  <si>
+    <t>敌人10</t>
+  </si>
+  <si>
+    <t>敌人11</t>
+  </si>
+  <si>
+    <t>敌人12</t>
+  </si>
+  <si>
+    <t>敌人13</t>
+  </si>
+  <si>
+    <t>敌人14</t>
+  </si>
+  <si>
+    <t>敌人15</t>
+  </si>
+  <si>
+    <t>敌人16</t>
+  </si>
+  <si>
+    <t>敌人17</t>
+  </si>
+  <si>
+    <t>敌人18</t>
+  </si>
+  <si>
+    <t>敌人19</t>
+  </si>
+  <si>
+    <t>敌人20</t>
+  </si>
+  <si>
+    <t>敌人敌人2</t>
+  </si>
+  <si>
+    <t>敌人敌人3</t>
+  </si>
+  <si>
+    <t>敌人敌人4</t>
+  </si>
+  <si>
+    <t>敌人敌人5</t>
+  </si>
+  <si>
+    <t>敌人敌人6</t>
+  </si>
+  <si>
+    <t>敌人敌人7</t>
+  </si>
+  <si>
+    <t>敌人敌人8</t>
+  </si>
+  <si>
+    <t>敌人敌人9</t>
+  </si>
+  <si>
+    <t>敌人敌人10</t>
+  </si>
+  <si>
+    <t>敌人敌人11</t>
+  </si>
+  <si>
+    <t>敌人敌人12</t>
+  </si>
+  <si>
+    <t>敌人敌人13</t>
+  </si>
+  <si>
+    <t>敌人敌人14</t>
+  </si>
+  <si>
+    <t>敌人敌人15</t>
+  </si>
+  <si>
+    <t>敌人敌人16</t>
+  </si>
+  <si>
+    <t>敌人敌人17</t>
+  </si>
+  <si>
+    <t>敌人敌人18</t>
+  </si>
+  <si>
+    <t>敌人敌人19</t>
+  </si>
+  <si>
+    <t>敌人敌人20</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Enemy_2</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_3</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_4</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_5</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_6</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_7</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_8</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_9</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_10</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_11</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_12</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_13</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_14</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_15</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_16</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_17</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_18</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_19</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_20</t>
   </si>
 </sst>
 </file>
@@ -451,15 +679,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="16.6640625" style="1" customWidth="1"/>
+    <col min="12" max="18" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -497,7 +729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -514,7 +746,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
@@ -529,11 +761,677 @@
         <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/EnemyInfo.xlsx
+++ b/Excel/EnemyInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9260F2B2-EFFB-4DBA-9107-E40416003432}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9CF3AA-B674-4300-B46D-9393A14EB8B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>敌人1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>敌人敌人1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,63 +147,6 @@
     <t>20</t>
   </si>
   <si>
-    <t>敌人2</t>
-  </si>
-  <si>
-    <t>敌人3</t>
-  </si>
-  <si>
-    <t>敌人4</t>
-  </si>
-  <si>
-    <t>敌人5</t>
-  </si>
-  <si>
-    <t>敌人6</t>
-  </si>
-  <si>
-    <t>敌人7</t>
-  </si>
-  <si>
-    <t>敌人8</t>
-  </si>
-  <si>
-    <t>敌人9</t>
-  </si>
-  <si>
-    <t>敌人10</t>
-  </si>
-  <si>
-    <t>敌人11</t>
-  </si>
-  <si>
-    <t>敌人12</t>
-  </si>
-  <si>
-    <t>敌人13</t>
-  </si>
-  <si>
-    <t>敌人14</t>
-  </si>
-  <si>
-    <t>敌人15</t>
-  </si>
-  <si>
-    <t>敌人16</t>
-  </si>
-  <si>
-    <t>敌人17</t>
-  </si>
-  <si>
-    <t>敌人18</t>
-  </si>
-  <si>
-    <t>敌人19</t>
-  </si>
-  <si>
-    <t>敌人20</t>
-  </si>
-  <si>
     <t>敌人敌人2</t>
   </si>
   <si>
@@ -324,6 +263,86 @@
   </si>
   <si>
     <t>Enemy/Enemy_20</t>
+  </si>
+  <si>
+    <t>僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土匪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔之子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔头领</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掠夺者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食人魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石像鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔猎犬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>污染树精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沼泽巨人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强夺者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林巨魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -682,7 +701,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -723,10 +742,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -734,699 +753,699 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EnemyInfo.xlsx
+++ b/Excel/EnemyInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9CF3AA-B674-4300-B46D-9393A14EB8B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835E6E3F-24E3-42F3-A52A-9ED2CBD4CD78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="166">
   <si>
     <t>敌人ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>敌人敌人1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,201 +143,467 @@
     <t>20</t>
   </si>
   <si>
-    <t>敌人敌人2</t>
-  </si>
-  <si>
-    <t>敌人敌人3</t>
-  </si>
-  <si>
-    <t>敌人敌人4</t>
-  </si>
-  <si>
-    <t>敌人敌人5</t>
-  </si>
-  <si>
-    <t>敌人敌人6</t>
-  </si>
-  <si>
-    <t>敌人敌人7</t>
-  </si>
-  <si>
-    <t>敌人敌人8</t>
-  </si>
-  <si>
-    <t>敌人敌人9</t>
-  </si>
-  <si>
-    <t>敌人敌人10</t>
-  </si>
-  <si>
-    <t>敌人敌人11</t>
-  </si>
-  <si>
-    <t>敌人敌人12</t>
-  </si>
-  <si>
-    <t>敌人敌人13</t>
-  </si>
-  <si>
-    <t>敌人敌人14</t>
-  </si>
-  <si>
-    <t>敌人敌人15</t>
-  </si>
-  <si>
-    <t>敌人敌人16</t>
-  </si>
-  <si>
-    <t>敌人敌人17</t>
-  </si>
-  <si>
-    <t>敌人敌人18</t>
-  </si>
-  <si>
-    <t>敌人敌人19</t>
-  </si>
-  <si>
-    <t>敌人敌人20</t>
+    <t>Enemy/Enemy_2</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_3</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_4</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_5</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_6</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_7</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_8</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_9</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_10</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_11</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_12</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_13</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_14</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_15</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_16</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_17</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_18</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_19</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_20</t>
+  </si>
+  <si>
+    <t>僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土匪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔之子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔头领</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掠夺者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食人魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石像鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔猎犬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>污染树精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沼泽巨人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强夺者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林巨魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影子射手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空骸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨魔先锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_24</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_22</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_25</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_21</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_23</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_26</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_27</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_28</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_29</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_30</t>
+  </si>
+  <si>
+    <t>黑暗屠杀者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨魔勇士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨魔首领</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矮小而邪恶的类人生物，不具备任何特别能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身穿护甲，能承受大量伤害的歹徒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具有轻型护甲的强悍野蛮人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练有素、全副武装的笨拙歹徒，带领歹徒一同出没。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高达、强悍的类人生物，他们会抹杀所到之处的一切生灵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具有魔法抗性的罪恶军阀，具有地狱的力量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准而致命的弓箭手。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全副武装的堕落骑士，几近刀枪不入。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屠杀者被黑暗吞没，能带来极大的破坏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>及其强悍的战士。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精锐部族战士，配备恶毒飞斧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带领巨魔进行战斗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精锐巨魔战士，配备冰上滑行的装备。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐怖的地狱生物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他们带领穷凶极恶的军队踏入战场。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毫无思想的骨骸，遵从邪恶主人的命令行事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅骑士生前是伟大的战士，由其遗骸复苏而催生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长有双翅的卑鄙生物，能飞越任何地方。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜好作恶的地狱飞行生物，常与石像鬼一同现身。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度非常快的凶残生物，经常可以躲避攻击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种野兽既狡猾又致命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令人畏惧的邪恶生物，是恶魔头领座下的猎犬。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨型人猿类生物，非常抗打。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无辜死者复活的尸体，没有思维。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵亡的战士，身体被森林消融，只剩空壳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凶猛好斗的掠食者。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种堕落的生物曾经是森林的保护者，拥有钢铁般的树皮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大堆植物性物质在最恶劣、最腐败之处拼凑而成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种巨兽极难杀死。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩浆元素由岩石与火焰组成，是死亡与毁灭的存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
   </si>
   <si>
     <t>Enemy/Enemy_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy/Enemy_2</t>
-  </si>
-  <si>
-    <t>Enemy/Enemy_3</t>
-  </si>
-  <si>
-    <t>Enemy/Enemy_4</t>
-  </si>
-  <si>
-    <t>Enemy/Enemy_5</t>
-  </si>
-  <si>
-    <t>Enemy/Enemy_6</t>
-  </si>
-  <si>
-    <t>Enemy/Enemy_7</t>
-  </si>
-  <si>
-    <t>Enemy/Enemy_8</t>
-  </si>
-  <si>
-    <t>Enemy/Enemy_9</t>
-  </si>
-  <si>
-    <t>Enemy/Enemy_10</t>
-  </si>
-  <si>
-    <t>Enemy/Enemy_11</t>
-  </si>
-  <si>
-    <t>Enemy/Enemy_12</t>
-  </si>
-  <si>
-    <t>Enemy/Enemy_13</t>
-  </si>
-  <si>
-    <t>Enemy/Enemy_14</t>
-  </si>
-  <si>
-    <t>Enemy/Enemy_15</t>
-  </si>
-  <si>
-    <t>Enemy/Enemy_16</t>
-  </si>
-  <si>
-    <t>Enemy/Enemy_17</t>
-  </si>
-  <si>
-    <t>Enemy/Enemy_18</t>
-  </si>
-  <si>
-    <t>Enemy/Enemy_19</t>
-  </si>
-  <si>
-    <t>Enemy/Enemy_20</t>
-  </si>
-  <si>
-    <t>僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土匪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗骑士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔之子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骷髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兽人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔头领</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掠夺者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食人魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石像鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔精</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土狼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔猎犬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘蛛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>污染树精</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沼泽巨人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强夺者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>森林巨魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔岩元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,16 +960,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.88671875" style="1" customWidth="1"/>
     <col min="4" max="10" width="8.88671875" style="1"/>
     <col min="11" max="11" width="16.6640625" style="1" customWidth="1"/>
     <col min="12" max="18" width="8.88671875" style="1"/>
@@ -742,710 +1005,1060 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EnemyInfo.xlsx
+++ b/Excel/EnemyInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835E6E3F-24E3-42F3-A52A-9ED2CBD4CD78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDF73AB-30B6-41E5-B0B0-8022198F08E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="190">
   <si>
     <t>敌人ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -532,78 +528,199 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Enemy/Enemy_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>Enemy/Enemy_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -963,7 +1080,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1013,60 +1130,60 @@
     </row>
     <row r="2" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>9</v>
@@ -1078,30 +1195,30 @@
         <v>9</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>10</v>
@@ -1110,36 +1227,36 @@
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>10</v>
@@ -1148,138 +1265,138 @@
         <v>9</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>10</v>
@@ -1288,205 +1405,205 @@
         <v>9</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>10</v>
@@ -1495,103 +1612,103 @@
         <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>10</v>
@@ -1603,65 +1720,65 @@
         <v>9</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>10</v>
@@ -1673,30 +1790,30 @@
         <v>9</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>10</v>
@@ -1708,21 +1825,21 @@
         <v>9</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
@@ -1731,7 +1848,7 @@
         <v>161</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>10</v>
@@ -1743,97 +1860,97 @@
         <v>9</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>9</v>
@@ -1848,103 +1965,103 @@
         <v>12</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>10</v>
@@ -1953,30 +2070,30 @@
         <v>9</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>10</v>
@@ -1985,33 +2102,33 @@
         <v>10</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>10</v>
@@ -2020,30 +2137,30 @@
         <v>10</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>9</v>
@@ -2055,10 +2172,10 @@
         <v>10</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EnemyInfo.xlsx
+++ b/Excel/EnemyInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDF73AB-30B6-41E5-B0B0-8022198F08E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1968214B-3AC6-4BDF-AA8B-1AADCAF5A0EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="226">
   <si>
     <t>敌人ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -721,6 +721,145 @@
   </si>
   <si>
     <t>220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野蛮人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无畏的部落勇士，身上的伤疤证明已经通过了勇者仪式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野蛮人猎人是迅捷的勇士。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大地萨满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些睿智的人能操纵大地之力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神萨满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专注于精神力量的勇士。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑巫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野蛮人猎人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握独特的黑魔法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>640</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Enemy_31</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_32</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_33</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_34</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_35</t>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1077,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2178,6 +2317,181 @@
         <v>95</v>
       </c>
     </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/EnemyInfo.xlsx
+++ b/Excel/EnemyInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B20D17-1982-451C-A5F7-84B17394AB0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4FA681-F952-4546-9A0F-2DB02916760E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="267">
   <si>
     <t>敌人ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -484,10 +484,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这种野兽既狡猾又致命。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>令人畏惧的邪恶生物，是恶魔头领座下的猎犬。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -875,6 +871,120 @@
   </si>
   <si>
     <t>512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>helpsprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/2</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/3</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/4</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/5</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/6</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/7</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/8</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/9</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/10</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/11</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/12</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/13</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/14</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/15</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/16</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/17</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/18</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/19</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/20</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/21</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/22</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/23</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/24</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/25</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/26</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/27</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/28</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/29</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/30</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/31</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/32</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/33</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/34</t>
+  </si>
+  <si>
+    <t>Main/Help/Enemy/35</t>
+  </si>
+  <si>
+    <t>速度非常快的冰原生物，经常可以躲避攻击。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1233,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1245,10 +1355,11 @@
     <col min="4" max="10" width="8.88671875" style="1"/>
     <col min="11" max="11" width="16.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.5546875" style="1" customWidth="1"/>
-    <col min="13" max="18" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="21.33203125" style="1" customWidth="1"/>
+    <col min="14" max="18" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1283,10 +1394,13 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>101</v>
       </c>
@@ -1303,7 +1417,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>102</v>
@@ -1318,13 +1432,16 @@
         <v>101</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1335,13 +1452,13 @@
         <v>105</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>103</v>
@@ -1359,10 +1476,13 @@
         <v>33</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1373,13 +1493,13 @@
         <v>110</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>103</v>
@@ -1397,10 +1517,13 @@
         <v>34</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1411,13 +1534,13 @@
         <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>103</v>
@@ -1435,10 +1558,13 @@
         <v>35</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1449,13 +1575,13 @@
         <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>103</v>
@@ -1473,10 +1599,13 @@
         <v>36</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1487,13 +1616,13 @@
         <v>111</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>103</v>
@@ -1511,10 +1640,13 @@
         <v>37</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1525,13 +1657,13 @@
         <v>112</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>102</v>
@@ -1549,10 +1681,13 @@
         <v>38</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1563,13 +1698,13 @@
         <v>113</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>103</v>
@@ -1587,10 +1722,13 @@
         <v>39</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1601,13 +1739,13 @@
         <v>116</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>115</v>
@@ -1625,10 +1763,13 @@
         <v>40</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1645,7 +1786,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>115</v>
@@ -1663,10 +1804,13 @@
         <v>41</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1677,13 +1821,13 @@
         <v>118</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>115</v>
@@ -1701,10 +1845,13 @@
         <v>42</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1715,13 +1862,13 @@
         <v>121</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>102</v>
@@ -1739,10 +1886,13 @@
         <v>43</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1753,13 +1903,13 @@
         <v>119</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>115</v>
@@ -1777,10 +1927,13 @@
         <v>44</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1788,16 +1941,16 @@
         <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>103</v>
@@ -1815,10 +1968,13 @@
         <v>45</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1829,13 +1985,13 @@
         <v>122</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>103</v>
@@ -1853,10 +2009,13 @@
         <v>46</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1867,13 +2026,13 @@
         <v>123</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>103</v>
@@ -1891,10 +2050,13 @@
         <v>47</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1905,13 +2067,13 @@
         <v>124</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>103</v>
@@ -1929,10 +2091,13 @@
         <v>48</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1943,13 +2108,13 @@
         <v>125</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>115</v>
@@ -1967,10 +2132,13 @@
         <v>49</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1981,13 +2149,13 @@
         <v>127</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>109</v>
@@ -2005,10 +2173,13 @@
         <v>50</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -2019,13 +2190,13 @@
         <v>128</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>103</v>
@@ -2043,10 +2214,13 @@
         <v>51</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>106</v>
       </c>
@@ -2057,13 +2231,13 @@
         <v>129</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>109</v>
@@ -2081,10 +2255,13 @@
         <v>88</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>76</v>
       </c>
@@ -2092,16 +2269,16 @@
         <v>96</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>102</v>
@@ -2119,10 +2296,13 @@
         <v>86</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>77</v>
       </c>
@@ -2130,16 +2310,16 @@
         <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>109</v>
@@ -2157,10 +2337,13 @@
         <v>89</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>78</v>
       </c>
@@ -2168,16 +2351,16 @@
         <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>9</v>
@@ -2195,10 +2378,13 @@
         <v>85</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
@@ -2206,16 +2392,16 @@
         <v>73</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>101</v>
@@ -2233,10 +2419,13 @@
         <v>87</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
@@ -2244,16 +2433,16 @@
         <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>103</v>
@@ -2271,10 +2460,13 @@
         <v>90</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
@@ -2282,16 +2474,16 @@
         <v>67</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>103</v>
@@ -2309,10 +2501,13 @@
         <v>91</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -2320,16 +2515,16 @@
         <v>68</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>103</v>
@@ -2347,10 +2542,13 @@
         <v>92</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>83</v>
       </c>
@@ -2358,16 +2556,16 @@
         <v>70</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>103</v>
@@ -2385,10 +2583,13 @@
         <v>93</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>84</v>
       </c>
@@ -2396,16 +2597,16 @@
         <v>71</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>9</v>
@@ -2423,197 +2624,215 @@
         <v>94</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="H32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="F33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="K33" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="K34" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K35" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>213</v>
+      <c r="M36" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
